--- a/samples/scenario1.xlsx
+++ b/samples/scenario1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="305">
   <si>
     <t>Caller</t>
   </si>
@@ -919,6 +919,21 @@
   </si>
   <si>
     <t>Serbia</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -1617,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G603"/>
   <sheetViews>
-    <sheetView topLeftCell="A558" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B603"/>
+    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
+      <selection activeCell="I571" sqref="I571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,8 +1688,8 @@
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10">
-        <v>0.2</v>
+      <c r="G2" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,8 +1711,8 @@
       <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10">
-        <v>0.2</v>
+      <c r="G3" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,8 +1734,8 @@
       <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10">
-        <v>0.2</v>
+      <c r="G4" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,8 +1757,8 @@
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="10">
-        <v>0.2</v>
+      <c r="G5" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,8 +1780,8 @@
       <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="10">
-        <v>0.2</v>
+      <c r="G6" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,8 +1803,8 @@
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="10">
-        <v>0.2</v>
+      <c r="G7" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,8 +1826,8 @@
       <c r="F8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="10">
-        <v>0.2</v>
+      <c r="G8" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,8 +1849,8 @@
       <c r="F9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="10">
-        <v>0.2</v>
+      <c r="G9" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,8 +1872,8 @@
       <c r="F10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="10">
-        <v>0.2</v>
+      <c r="G10" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,8 +1895,8 @@
       <c r="F11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="10">
-        <v>0.2</v>
+      <c r="G11" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,8 +1918,8 @@
       <c r="F12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="10">
-        <v>0.2</v>
+      <c r="G12" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,8 +1941,8 @@
       <c r="F13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="10">
-        <v>0.2</v>
+      <c r="G13" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,8 +1964,8 @@
       <c r="F14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="10">
-        <v>0.2</v>
+      <c r="G14" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,8 +1987,8 @@
       <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="10">
-        <v>0.2</v>
+      <c r="G15" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,8 +2010,8 @@
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
-        <v>0.2</v>
+      <c r="G16" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,8 +2033,8 @@
       <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="10">
-        <v>0.2</v>
+      <c r="G17" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,8 +2056,8 @@
       <c r="F18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="10">
-        <v>0.2</v>
+      <c r="G18" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,8 +2079,8 @@
       <c r="F19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10">
-        <v>0.2</v>
+      <c r="G19" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,8 +2102,8 @@
       <c r="F20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="10">
-        <v>0.3</v>
+      <c r="G20" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,8 +2125,8 @@
       <c r="F21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="10">
-        <v>0.3</v>
+      <c r="G21" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,8 +2148,8 @@
       <c r="F22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="10">
-        <v>0.3</v>
+      <c r="G22" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2156,8 +2171,8 @@
       <c r="F23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="10">
-        <v>0.3</v>
+      <c r="G23" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,8 +2194,8 @@
       <c r="F24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="10">
-        <v>0.3</v>
+      <c r="G24" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,8 +2217,8 @@
       <c r="F25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="10">
-        <v>0.3</v>
+      <c r="G25" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,8 +2240,8 @@
       <c r="F26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="10">
-        <v>0.3</v>
+      <c r="G26" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,8 +2263,8 @@
       <c r="F27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="10">
-        <v>0.3</v>
+      <c r="G27" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,8 +2286,8 @@
       <c r="F28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="10">
-        <v>0.3</v>
+      <c r="G28" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,8 +2309,8 @@
       <c r="F29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="10">
-        <v>0.2</v>
+      <c r="G29" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,8 +2332,8 @@
       <c r="F30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="10">
-        <v>0.3</v>
+      <c r="G30" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,8 +2355,8 @@
       <c r="F31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="10">
-        <v>0.3</v>
+      <c r="G31" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2363,8 +2378,8 @@
       <c r="F32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="10">
-        <v>0.3</v>
+      <c r="G32" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,8 +2401,8 @@
       <c r="F33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="10">
-        <v>0.3</v>
+      <c r="G33" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2409,8 +2424,8 @@
       <c r="F34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="10">
-        <v>0.3</v>
+      <c r="G34" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,8 +2447,8 @@
       <c r="F35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="10">
-        <v>0.3</v>
+      <c r="G35" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,8 +2470,8 @@
       <c r="F36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="10">
-        <v>0.3</v>
+      <c r="G36" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,8 +2493,8 @@
       <c r="F37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="10">
-        <v>0.3</v>
+      <c r="G37" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2501,8 +2516,8 @@
       <c r="F38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="10">
-        <v>0.3</v>
+      <c r="G38" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2524,8 +2539,8 @@
       <c r="F39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="10">
-        <v>0.3</v>
+      <c r="G39" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2547,8 +2562,8 @@
       <c r="F40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="10">
-        <v>0.3</v>
+      <c r="G40" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,8 +2585,8 @@
       <c r="F41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="10">
-        <v>0.3</v>
+      <c r="G41" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,8 +2608,8 @@
       <c r="F42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="10">
-        <v>0.3</v>
+      <c r="G42" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2616,8 +2631,8 @@
       <c r="F43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="10">
-        <v>0.3</v>
+      <c r="G43" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2639,8 +2654,8 @@
       <c r="F44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="10">
-        <v>0.3</v>
+      <c r="G44" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2662,8 +2677,8 @@
       <c r="F45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="10">
-        <v>0.3</v>
+      <c r="G45" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2685,8 +2700,8 @@
       <c r="F46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="10">
-        <v>0.3</v>
+      <c r="G46" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,8 +2723,8 @@
       <c r="F47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="10">
-        <v>0.3</v>
+      <c r="G47" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,8 +2746,8 @@
       <c r="F48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="10">
-        <v>0.3</v>
+      <c r="G48" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,8 +2769,8 @@
       <c r="F49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="10">
-        <v>0.3</v>
+      <c r="G49" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,8 +2792,8 @@
       <c r="F50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="10">
-        <v>0.3</v>
+      <c r="G50" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2800,8 +2815,8 @@
       <c r="F51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="10">
-        <v>0.3</v>
+      <c r="G51" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,8 +2838,8 @@
       <c r="F52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="10">
-        <v>0.3</v>
+      <c r="G52" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2846,8 +2861,8 @@
       <c r="F53" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G53" s="10">
-        <v>0.3</v>
+      <c r="G53" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,8 +2884,8 @@
       <c r="F54" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="10">
-        <v>0.3</v>
+      <c r="G54" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2892,8 +2907,8 @@
       <c r="F55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="10">
-        <v>0.3</v>
+      <c r="G55" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,8 +2930,8 @@
       <c r="F56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="10">
-        <v>0.3</v>
+      <c r="G56" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,8 +2953,8 @@
       <c r="F57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="10">
-        <v>0.3</v>
+      <c r="G57" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,8 +2976,8 @@
       <c r="F58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="10">
-        <v>0.3</v>
+      <c r="G58" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2984,8 +2999,8 @@
       <c r="F59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="10">
-        <v>0.3</v>
+      <c r="G59" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3007,8 +3022,8 @@
       <c r="F60" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="10">
-        <v>0.3</v>
+      <c r="G60" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,8 +3045,8 @@
       <c r="F61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="10">
-        <v>0.3</v>
+      <c r="G61" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,8 +3068,8 @@
       <c r="F62" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="10">
-        <v>0.3</v>
+      <c r="G62" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3076,8 +3091,8 @@
       <c r="F63" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="10">
-        <v>0.3</v>
+      <c r="G63" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3099,8 +3114,8 @@
       <c r="F64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="10">
-        <v>0.3</v>
+      <c r="G64" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3122,8 +3137,8 @@
       <c r="F65" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="10">
-        <v>0.3</v>
+      <c r="G65" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,8 +3160,8 @@
       <c r="F66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G66" s="10">
-        <v>0.3</v>
+      <c r="G66" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3168,8 +3183,8 @@
       <c r="F67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="10">
-        <v>0.3</v>
+      <c r="G67" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3191,8 +3206,8 @@
       <c r="F68" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G68" s="10">
-        <v>0.2</v>
+      <c r="G68" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3214,8 +3229,8 @@
       <c r="F69" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G69" s="10">
-        <v>0.2</v>
+      <c r="G69" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,8 +3252,8 @@
       <c r="F70" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="10">
-        <v>0.2</v>
+      <c r="G70" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3260,8 +3275,8 @@
       <c r="F71" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="10">
-        <v>0.2</v>
+      <c r="G71" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3283,8 +3298,8 @@
       <c r="F72" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G72" s="10">
-        <v>0.2</v>
+      <c r="G72" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3306,8 +3321,8 @@
       <c r="F73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G73" s="10">
-        <v>0.2</v>
+      <c r="G73" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3329,8 +3344,8 @@
       <c r="F74" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="10">
-        <v>0.2</v>
+      <c r="G74" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3352,8 +3367,8 @@
       <c r="F75" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G75" s="10">
-        <v>0.2</v>
+      <c r="G75" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,8 +3390,8 @@
       <c r="F76" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="10">
-        <v>0.2</v>
+      <c r="G76" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3398,8 +3413,8 @@
       <c r="F77" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G77" s="10">
-        <v>0.2</v>
+      <c r="G77" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,8 +3436,8 @@
       <c r="F78" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G78" s="10">
-        <v>0.2</v>
+      <c r="G78" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3444,8 +3459,8 @@
       <c r="F79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G79" s="10">
-        <v>0.2</v>
+      <c r="G79" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3467,8 +3482,8 @@
       <c r="F80" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G80" s="10">
-        <v>0.2</v>
+      <c r="G80" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3490,8 +3505,8 @@
       <c r="F81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G81" s="10">
-        <v>0.2</v>
+      <c r="G81" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3513,8 +3528,8 @@
       <c r="F82" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G82" s="10">
-        <v>0.2</v>
+      <c r="G82" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3536,8 +3551,8 @@
       <c r="F83" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G83" s="10">
-        <v>0.2</v>
+      <c r="G83" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3559,8 +3574,8 @@
       <c r="F84" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G84" s="10">
-        <v>0.2</v>
+      <c r="G84" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3582,8 +3597,8 @@
       <c r="F85" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G85" s="10">
-        <v>0.2</v>
+      <c r="G85" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3605,8 +3620,8 @@
       <c r="F86" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G86" s="10">
-        <v>0.2</v>
+      <c r="G86" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3628,8 +3643,8 @@
       <c r="F87" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G87" s="10">
-        <v>0.2</v>
+      <c r="G87" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3651,8 +3666,8 @@
       <c r="F88" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G88" s="10">
-        <v>0.2</v>
+      <c r="G88" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3674,8 +3689,8 @@
       <c r="F89" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G89" s="10">
-        <v>0.2</v>
+      <c r="G89" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3697,8 +3712,8 @@
       <c r="F90" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G90" s="10">
-        <v>0.2</v>
+      <c r="G90" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3720,8 +3735,8 @@
       <c r="F91" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G91" s="10">
-        <v>0.2</v>
+      <c r="G91" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3743,8 +3758,8 @@
       <c r="F92" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G92" s="10">
-        <v>0.2</v>
+      <c r="G92" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3766,8 +3781,8 @@
       <c r="F93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="10">
-        <v>0.2</v>
+      <c r="G93" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3789,8 +3804,8 @@
       <c r="F94" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G94" s="10">
-        <v>0.2</v>
+      <c r="G94" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3812,8 +3827,8 @@
       <c r="F95" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G95" s="10">
-        <v>0.2</v>
+      <c r="G95" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3835,8 +3850,8 @@
       <c r="F96" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G96" s="10">
-        <v>0.2</v>
+      <c r="G96" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3858,8 +3873,8 @@
       <c r="F97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G97" s="10">
-        <v>0.2</v>
+      <c r="G97" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3881,8 +3896,8 @@
       <c r="F98" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G98" s="10">
-        <v>0.2</v>
+      <c r="G98" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3904,8 +3919,8 @@
       <c r="F99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G99" s="10">
-        <v>0.2</v>
+      <c r="G99" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3927,8 +3942,8 @@
       <c r="F100" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G100" s="10">
-        <v>0.2</v>
+      <c r="G100" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3950,8 +3965,8 @@
       <c r="F101" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G101" s="10">
-        <v>0.2</v>
+      <c r="G101" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3973,8 +3988,8 @@
       <c r="F102" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G102" s="10">
-        <v>0.2</v>
+      <c r="G102" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3996,8 +4011,8 @@
       <c r="F103" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G103" s="10">
-        <v>0.2</v>
+      <c r="G103" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4019,8 +4034,8 @@
       <c r="F104" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G104" s="10">
-        <v>0.2</v>
+      <c r="G104" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4042,8 +4057,8 @@
       <c r="F105" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G105" s="10">
-        <v>0.2</v>
+      <c r="G105" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4065,8 +4080,8 @@
       <c r="F106" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G106" s="10">
-        <v>0.2</v>
+      <c r="G106" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4088,8 +4103,8 @@
       <c r="F107" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G107" s="10">
-        <v>0.2</v>
+      <c r="G107" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4111,8 +4126,8 @@
       <c r="F108" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G108" s="10">
-        <v>0.2</v>
+      <c r="G108" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4134,8 +4149,8 @@
       <c r="F109" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G109" s="10">
-        <v>0.2</v>
+      <c r="G109" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4157,8 +4172,8 @@
       <c r="F110" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G110" s="10">
-        <v>0.2</v>
+      <c r="G110" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4180,8 +4195,8 @@
       <c r="F111" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G111" s="10">
-        <v>0.2</v>
+      <c r="G111" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4203,8 +4218,8 @@
       <c r="F112" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G112" s="10">
-        <v>0.2</v>
+      <c r="G112" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4226,8 +4241,8 @@
       <c r="F113" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G113" s="10">
-        <v>0.2</v>
+      <c r="G113" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4249,8 +4264,8 @@
       <c r="F114" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G114" s="10">
-        <v>0.2</v>
+      <c r="G114" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4272,8 +4287,8 @@
       <c r="F115" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G115" s="10">
-        <v>0.2</v>
+      <c r="G115" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4295,8 +4310,8 @@
       <c r="F116" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G116" s="10">
-        <v>0.2</v>
+      <c r="G116" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4318,8 +4333,8 @@
       <c r="F117" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G117" s="10">
-        <v>0.2</v>
+      <c r="G117" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4341,8 +4356,8 @@
       <c r="F118" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="10">
-        <v>0.2</v>
+      <c r="G118" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4364,8 +4379,8 @@
       <c r="F119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G119" s="10">
-        <v>0.2</v>
+      <c r="G119" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4387,8 +4402,8 @@
       <c r="F120" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G120" s="10">
-        <v>0.2</v>
+      <c r="G120" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4410,8 +4425,8 @@
       <c r="F121" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G121" s="10">
-        <v>0.2</v>
+      <c r="G121" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4433,8 +4448,8 @@
       <c r="F122" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G122" s="10">
-        <v>0.2</v>
+      <c r="G122" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4456,8 +4471,8 @@
       <c r="F123" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G123" s="10">
-        <v>0.2</v>
+      <c r="G123" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4479,8 +4494,8 @@
       <c r="F124" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G124" s="10">
-        <v>0.2</v>
+      <c r="G124" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4502,8 +4517,8 @@
       <c r="F125" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G125" s="10">
-        <v>0.2</v>
+      <c r="G125" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4525,8 +4540,8 @@
       <c r="F126" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G126" s="10">
-        <v>0.2</v>
+      <c r="G126" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4548,8 +4563,8 @@
       <c r="F127" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G127" s="10">
-        <v>0.2</v>
+      <c r="G127" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4571,8 +4586,8 @@
       <c r="F128" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G128" s="10">
-        <v>0.2</v>
+      <c r="G128" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4594,8 +4609,8 @@
       <c r="F129" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G129" s="10">
-        <v>0.2</v>
+      <c r="G129" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4617,8 +4632,8 @@
       <c r="F130" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G130" s="10">
-        <v>0.2</v>
+      <c r="G130" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4640,8 +4655,8 @@
       <c r="F131" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G131" s="10">
-        <v>0.2</v>
+      <c r="G131" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4663,8 +4678,8 @@
       <c r="F132" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G132" s="10">
-        <v>0.2</v>
+      <c r="G132" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4686,8 +4701,8 @@
       <c r="F133" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G133" s="10">
-        <v>0.2</v>
+      <c r="G133" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4709,8 +4724,8 @@
       <c r="F134" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G134" s="10">
-        <v>0.2</v>
+      <c r="G134" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4732,8 +4747,8 @@
       <c r="F135" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G135" s="10">
-        <v>0.2</v>
+      <c r="G135" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4755,8 +4770,8 @@
       <c r="F136" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G136" s="10">
-        <v>0.2</v>
+      <c r="G136" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4778,8 +4793,8 @@
       <c r="F137" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G137" s="10">
-        <v>0.2</v>
+      <c r="G137" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4801,8 +4816,8 @@
       <c r="F138" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G138" s="10">
-        <v>0.2</v>
+      <c r="G138" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4824,8 +4839,8 @@
       <c r="F139" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G139" s="10">
-        <v>0.2</v>
+      <c r="G139" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4847,8 +4862,8 @@
       <c r="F140" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G140" s="10">
-        <v>0.2</v>
+      <c r="G140" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4870,8 +4885,8 @@
       <c r="F141" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G141" s="10">
-        <v>0.2</v>
+      <c r="G141" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4893,8 +4908,8 @@
       <c r="F142" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G142" s="10">
-        <v>0.2</v>
+      <c r="G142" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4916,8 +4931,8 @@
       <c r="F143" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G143" s="10">
-        <v>0.2</v>
+      <c r="G143" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4939,8 +4954,8 @@
       <c r="F144" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G144" s="10">
-        <v>0.2</v>
+      <c r="G144" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4962,8 +4977,8 @@
       <c r="F145" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G145" s="10">
-        <v>0.2</v>
+      <c r="G145" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4985,8 +5000,8 @@
       <c r="F146" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G146" s="10">
-        <v>0.2</v>
+      <c r="G146" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5008,8 +5023,8 @@
       <c r="F147" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G147" s="10">
-        <v>0.2</v>
+      <c r="G147" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5031,8 +5046,8 @@
       <c r="F148" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G148" s="10">
-        <v>0.2</v>
+      <c r="G148" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5054,8 +5069,8 @@
       <c r="F149" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G149" s="10">
-        <v>0.2</v>
+      <c r="G149" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5077,8 +5092,8 @@
       <c r="F150" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G150" s="10">
-        <v>0.2</v>
+      <c r="G150" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5100,8 +5115,8 @@
       <c r="F151" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G151" s="10">
-        <v>0.2</v>
+      <c r="G151" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,8 +5138,8 @@
       <c r="F152" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G152" s="10">
-        <v>0.2</v>
+      <c r="G152" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5146,8 +5161,8 @@
       <c r="F153" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G153" s="10">
-        <v>0.2</v>
+      <c r="G153" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5169,8 +5184,8 @@
       <c r="F154" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G154" s="10">
-        <v>0.2</v>
+      <c r="G154" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5192,8 +5207,8 @@
       <c r="F155" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G155" s="10">
-        <v>0.2</v>
+      <c r="G155" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5215,8 +5230,8 @@
       <c r="F156" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G156" s="10">
-        <v>0.2</v>
+      <c r="G156" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5238,8 +5253,8 @@
       <c r="F157" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G157" s="10">
-        <v>0.2</v>
+      <c r="G157" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5261,8 +5276,8 @@
       <c r="F158" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G158" s="10">
-        <v>0.2</v>
+      <c r="G158" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5284,8 +5299,8 @@
       <c r="F159" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G159" s="10">
-        <v>0.2</v>
+      <c r="G159" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5307,8 +5322,8 @@
       <c r="F160" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G160" s="10">
-        <v>0.2</v>
+      <c r="G160" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5330,8 +5345,8 @@
       <c r="F161" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G161" s="10">
-        <v>0.2</v>
+      <c r="G161" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5353,8 +5368,8 @@
       <c r="F162" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G162" s="10">
-        <v>0.2</v>
+      <c r="G162" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5376,8 +5391,8 @@
       <c r="F163" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G163" s="10">
-        <v>0.2</v>
+      <c r="G163" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5399,8 +5414,8 @@
       <c r="F164" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G164" s="10">
-        <v>0.3</v>
+      <c r="G164" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5422,8 +5437,8 @@
       <c r="F165" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G165" s="10">
-        <v>0.3</v>
+      <c r="G165" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5445,8 +5460,8 @@
       <c r="F166" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G166" s="10">
-        <v>0.3</v>
+      <c r="G166" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5468,8 +5483,8 @@
       <c r="F167" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G167" s="10">
-        <v>0.3</v>
+      <c r="G167" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5491,8 +5506,8 @@
       <c r="F168" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G168" s="10">
-        <v>0.3</v>
+      <c r="G168" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5514,8 +5529,8 @@
       <c r="F169" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G169" s="10">
-        <v>0.3</v>
+      <c r="G169" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5537,8 +5552,8 @@
       <c r="F170" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G170" s="10">
-        <v>0.3</v>
+      <c r="G170" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5560,8 +5575,8 @@
       <c r="F171" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G171" s="10">
-        <v>0.3</v>
+      <c r="G171" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5583,8 +5598,8 @@
       <c r="F172" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G172" s="10">
-        <v>0.3</v>
+      <c r="G172" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5606,8 +5621,8 @@
       <c r="F173" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G173" s="10">
-        <v>0.3</v>
+      <c r="G173" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,8 +5644,8 @@
       <c r="F174" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G174" s="10">
-        <v>0.3</v>
+      <c r="G174" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5652,8 +5667,8 @@
       <c r="F175" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G175" s="10">
-        <v>0.3</v>
+      <c r="G175" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5675,8 +5690,8 @@
       <c r="F176" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G176" s="10">
-        <v>0.3</v>
+      <c r="G176" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5698,8 +5713,8 @@
       <c r="F177" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G177" s="10">
-        <v>0.3</v>
+      <c r="G177" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5721,8 +5736,8 @@
       <c r="F178" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G178" s="10">
-        <v>0.3</v>
+      <c r="G178" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5744,8 +5759,8 @@
       <c r="F179" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G179" s="10">
-        <v>0.3</v>
+      <c r="G179" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5767,8 +5782,8 @@
       <c r="F180" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G180" s="10">
-        <v>0.3</v>
+      <c r="G180" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5790,8 +5805,8 @@
       <c r="F181" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G181" s="10">
-        <v>0.3</v>
+      <c r="G181" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5813,8 +5828,8 @@
       <c r="F182" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G182" s="10">
-        <v>0.3</v>
+      <c r="G182" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5836,8 +5851,8 @@
       <c r="F183" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G183" s="10">
-        <v>0.3</v>
+      <c r="G183" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5859,8 +5874,8 @@
       <c r="F184" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G184" s="10">
-        <v>0.3</v>
+      <c r="G184" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5882,8 +5897,8 @@
       <c r="F185" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G185" s="10">
-        <v>0.3</v>
+      <c r="G185" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5905,8 +5920,8 @@
       <c r="F186" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G186" s="10">
-        <v>0.3</v>
+      <c r="G186" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5928,8 +5943,8 @@
       <c r="F187" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G187" s="10">
-        <v>0.3</v>
+      <c r="G187" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5951,8 +5966,8 @@
       <c r="F188" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G188" s="10">
-        <v>0.3</v>
+      <c r="G188" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5974,8 +5989,8 @@
       <c r="F189" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G189" s="10">
-        <v>0.3</v>
+      <c r="G189" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5997,8 +6012,8 @@
       <c r="F190" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G190" s="10">
-        <v>0.3</v>
+      <c r="G190" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6020,8 +6035,8 @@
       <c r="F191" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G191" s="10">
-        <v>0.3</v>
+      <c r="G191" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6043,8 +6058,8 @@
       <c r="F192" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G192" s="10">
-        <v>0.3</v>
+      <c r="G192" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6066,8 +6081,8 @@
       <c r="F193" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G193" s="10">
-        <v>0.3</v>
+      <c r="G193" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,8 +6104,8 @@
       <c r="F194" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G194" s="10">
-        <v>0.3</v>
+      <c r="G194" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6112,8 +6127,8 @@
       <c r="F195" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G195" s="10">
-        <v>0.3</v>
+      <c r="G195" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6135,8 +6150,8 @@
       <c r="F196" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G196" s="10">
-        <v>0.3</v>
+      <c r="G196" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6158,8 +6173,8 @@
       <c r="F197" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G197" s="10">
-        <v>0.3</v>
+      <c r="G197" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6181,8 +6196,8 @@
       <c r="F198" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G198" s="10">
-        <v>0.3</v>
+      <c r="G198" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6204,8 +6219,8 @@
       <c r="F199" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G199" s="10">
-        <v>0.3</v>
+      <c r="G199" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6227,8 +6242,8 @@
       <c r="F200" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G200" s="10">
-        <v>0.3</v>
+      <c r="G200" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6250,8 +6265,8 @@
       <c r="F201" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G201" s="10">
-        <v>0.3</v>
+      <c r="G201" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6273,8 +6288,8 @@
       <c r="F202" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G202" s="10">
-        <v>0.3</v>
+      <c r="G202" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6296,8 +6311,8 @@
       <c r="F203" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G203" s="10">
-        <v>0.3</v>
+      <c r="G203" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,8 +6334,8 @@
       <c r="F204" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G204" s="10">
-        <v>0.3</v>
+      <c r="G204" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6342,8 +6357,8 @@
       <c r="F205" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G205" s="10">
-        <v>0.3</v>
+      <c r="G205" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,8 +6380,8 @@
       <c r="F206" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G206" s="10">
-        <v>0.3</v>
+      <c r="G206" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6388,8 +6403,8 @@
       <c r="F207" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G207" s="10">
-        <v>0.3</v>
+      <c r="G207" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6411,8 +6426,8 @@
       <c r="F208" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G208" s="10">
-        <v>0.3</v>
+      <c r="G208" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6434,8 +6449,8 @@
       <c r="F209" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G209" s="10">
-        <v>0.3</v>
+      <c r="G209" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6457,8 +6472,8 @@
       <c r="F210" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G210" s="10">
-        <v>0.3</v>
+      <c r="G210" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6480,8 +6495,8 @@
       <c r="F211" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G211" s="10">
-        <v>0.3</v>
+      <c r="G211" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6503,8 +6518,8 @@
       <c r="F212" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G212" s="10">
-        <v>0.3</v>
+      <c r="G212" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6526,8 +6541,8 @@
       <c r="F213" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G213" s="10">
-        <v>0.3</v>
+      <c r="G213" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6549,8 +6564,8 @@
       <c r="F214" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G214" s="10">
-        <v>0.3</v>
+      <c r="G214" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6572,8 +6587,8 @@
       <c r="F215" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G215" s="10">
-        <v>0.3</v>
+      <c r="G215" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6595,8 +6610,8 @@
       <c r="F216" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G216" s="10">
-        <v>0.3</v>
+      <c r="G216" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6618,8 +6633,8 @@
       <c r="F217" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G217" s="10">
-        <v>0.3</v>
+      <c r="G217" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6641,8 +6656,8 @@
       <c r="F218" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G218" s="10">
-        <v>0.3</v>
+      <c r="G218" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6664,8 +6679,8 @@
       <c r="F219" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G219" s="10">
-        <v>0.3</v>
+      <c r="G219" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6687,8 +6702,8 @@
       <c r="F220" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G220" s="10">
-        <v>0.3</v>
+      <c r="G220" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6710,8 +6725,8 @@
       <c r="F221" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G221" s="10">
-        <v>0.3</v>
+      <c r="G221" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -6733,8 +6748,8 @@
       <c r="F222" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G222" s="10">
-        <v>0.3</v>
+      <c r="G222" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -6756,8 +6771,8 @@
       <c r="F223" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G223" s="10">
-        <v>0.3</v>
+      <c r="G223" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6779,8 +6794,8 @@
       <c r="F224" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G224" s="10">
-        <v>0.3</v>
+      <c r="G224" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6802,8 +6817,8 @@
       <c r="F225" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G225" s="10">
-        <v>0.3</v>
+      <c r="G225" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6825,8 +6840,8 @@
       <c r="F226" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G226" s="10">
-        <v>0.3</v>
+      <c r="G226" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -6848,8 +6863,8 @@
       <c r="F227" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G227" s="10">
-        <v>0.3</v>
+      <c r="G227" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6871,8 +6886,8 @@
       <c r="F228" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G228" s="10">
-        <v>0.3</v>
+      <c r="G228" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6894,8 +6909,8 @@
       <c r="F229" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G229" s="10">
-        <v>0.3</v>
+      <c r="G229" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6917,8 +6932,8 @@
       <c r="F230" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G230" s="10">
-        <v>0.3</v>
+      <c r="G230" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6940,8 +6955,8 @@
       <c r="F231" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G231" s="10">
-        <v>0.3</v>
+      <c r="G231" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6963,8 +6978,8 @@
       <c r="F232" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G232" s="10">
-        <v>0.3</v>
+      <c r="G232" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6986,8 +7001,8 @@
       <c r="F233" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G233" s="10">
-        <v>0.3</v>
+      <c r="G233" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7009,8 +7024,8 @@
       <c r="F234" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G234" s="10">
-        <v>0.3</v>
+      <c r="G234" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7032,8 +7047,8 @@
       <c r="F235" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G235" s="10">
-        <v>0.3</v>
+      <c r="G235" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7055,8 +7070,8 @@
       <c r="F236" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G236" s="10">
-        <v>0.3</v>
+      <c r="G236" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7078,8 +7093,8 @@
       <c r="F237" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G237" s="10">
-        <v>0.3</v>
+      <c r="G237" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7101,8 +7116,8 @@
       <c r="F238" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G238" s="10">
-        <v>0.3</v>
+      <c r="G238" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7124,8 +7139,8 @@
       <c r="F239" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G239" s="10">
-        <v>0.3</v>
+      <c r="G239" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7147,8 +7162,8 @@
       <c r="F240" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G240" s="10">
-        <v>0.3</v>
+      <c r="G240" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7170,8 +7185,8 @@
       <c r="F241" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G241" s="10">
-        <v>0.3</v>
+      <c r="G241" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7193,8 +7208,8 @@
       <c r="F242" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G242" s="10">
-        <v>0.3</v>
+      <c r="G242" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7216,8 +7231,8 @@
       <c r="F243" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G243" s="10">
-        <v>0.3</v>
+      <c r="G243" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7239,8 +7254,8 @@
       <c r="F244" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G244" s="10">
-        <v>0.3</v>
+      <c r="G244" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7262,8 +7277,8 @@
       <c r="F245" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G245" s="10">
-        <v>0.3</v>
+      <c r="G245" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7285,8 +7300,8 @@
       <c r="F246" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G246" s="10">
-        <v>0.3</v>
+      <c r="G246" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7308,8 +7323,8 @@
       <c r="F247" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G247" s="10">
-        <v>0.3</v>
+      <c r="G247" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7331,8 +7346,8 @@
       <c r="F248" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G248" s="10">
-        <v>0.3</v>
+      <c r="G248" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7354,8 +7369,8 @@
       <c r="F249" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G249" s="10">
-        <v>0.3</v>
+      <c r="G249" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7377,8 +7392,8 @@
       <c r="F250" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G250" s="10">
-        <v>0.3</v>
+      <c r="G250" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7400,8 +7415,8 @@
       <c r="F251" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G251" s="10">
-        <v>0.3</v>
+      <c r="G251" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7423,8 +7438,8 @@
       <c r="F252" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G252" s="10">
-        <v>0.3</v>
+      <c r="G252" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7446,8 +7461,8 @@
       <c r="F253" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G253" s="10">
-        <v>0.3</v>
+      <c r="G253" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7469,8 +7484,8 @@
       <c r="F254" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G254" s="10">
-        <v>0.3</v>
+      <c r="G254" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7492,8 +7507,8 @@
       <c r="F255" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G255" s="10">
-        <v>0.3</v>
+      <c r="G255" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7515,8 +7530,8 @@
       <c r="F256" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G256" s="10">
-        <v>0.3</v>
+      <c r="G256" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7538,8 +7553,8 @@
       <c r="F257" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G257" s="10">
-        <v>0.3</v>
+      <c r="G257" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7561,8 +7576,8 @@
       <c r="F258" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G258" s="10">
-        <v>0.3</v>
+      <c r="G258" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7584,8 +7599,8 @@
       <c r="F259" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G259" s="10">
-        <v>0.3</v>
+      <c r="G259" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7607,8 +7622,8 @@
       <c r="F260" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G260" s="10">
-        <v>0.3</v>
+      <c r="G260" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7630,8 +7645,8 @@
       <c r="F261" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G261" s="10">
-        <v>0.3</v>
+      <c r="G261" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7653,8 +7668,8 @@
       <c r="F262" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G262" s="10">
-        <v>0.3</v>
+      <c r="G262" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7676,8 +7691,8 @@
       <c r="F263" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G263" s="10">
-        <v>0.3</v>
+      <c r="G263" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7699,8 +7714,8 @@
       <c r="F264" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G264" s="10">
-        <v>0.3</v>
+      <c r="G264" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -7722,8 +7737,8 @@
       <c r="F265" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G265" s="10">
-        <v>0.3</v>
+      <c r="G265" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7745,8 +7760,8 @@
       <c r="F266" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G266" s="10">
-        <v>0.3</v>
+      <c r="G266" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7768,8 +7783,8 @@
       <c r="F267" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G267" s="10">
-        <v>0.3</v>
+      <c r="G267" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -7791,8 +7806,8 @@
       <c r="F268" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G268" s="10">
-        <v>0.3</v>
+      <c r="G268" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -7814,8 +7829,8 @@
       <c r="F269" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G269" s="10">
-        <v>0.3</v>
+      <c r="G269" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7837,8 +7852,8 @@
       <c r="F270" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G270" s="10">
-        <v>0.3</v>
+      <c r="G270" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7860,8 +7875,8 @@
       <c r="F271" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G271" s="10">
-        <v>0.3</v>
+      <c r="G271" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -7883,8 +7898,8 @@
       <c r="F272" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G272" s="10">
-        <v>0.3</v>
+      <c r="G272" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -7906,8 +7921,8 @@
       <c r="F273" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G273" s="10">
-        <v>0.3</v>
+      <c r="G273" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -7929,8 +7944,8 @@
       <c r="F274" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G274" s="10">
-        <v>0.3</v>
+      <c r="G274" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -7952,8 +7967,8 @@
       <c r="F275" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G275" s="10">
-        <v>0.3</v>
+      <c r="G275" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -7975,8 +7990,8 @@
       <c r="F276" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G276" s="10">
-        <v>0.3</v>
+      <c r="G276" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7998,8 +8013,8 @@
       <c r="F277" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G277" s="10">
-        <v>0.3</v>
+      <c r="G277" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -8021,8 +8036,8 @@
       <c r="F278" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G278" s="10">
-        <v>0.3</v>
+      <c r="G278" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -8044,8 +8059,8 @@
       <c r="F279" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G279" s="10">
-        <v>0.3</v>
+      <c r="G279" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -8067,8 +8082,8 @@
       <c r="F280" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G280" s="10">
-        <v>0.3</v>
+      <c r="G280" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -8090,8 +8105,8 @@
       <c r="F281" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G281" s="10">
-        <v>0.3</v>
+      <c r="G281" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -8113,8 +8128,8 @@
       <c r="F282" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G282" s="10">
-        <v>0.3</v>
+      <c r="G282" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -8136,8 +8151,8 @@
       <c r="F283" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G283" s="10">
-        <v>0.3</v>
+      <c r="G283" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -8159,8 +8174,8 @@
       <c r="F284" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G284" s="10">
-        <v>0.3</v>
+      <c r="G284" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -8182,8 +8197,8 @@
       <c r="F285" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G285" s="10">
-        <v>0.3</v>
+      <c r="G285" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -8205,8 +8220,8 @@
       <c r="F286" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G286" s="10">
-        <v>0.3</v>
+      <c r="G286" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -8228,8 +8243,8 @@
       <c r="F287" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G287" s="10">
-        <v>0.3</v>
+      <c r="G287" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -8251,8 +8266,8 @@
       <c r="F288" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G288" s="10">
-        <v>0.3</v>
+      <c r="G288" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -8274,8 +8289,8 @@
       <c r="F289" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G289" s="10">
-        <v>0.3</v>
+      <c r="G289" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -8297,8 +8312,8 @@
       <c r="F290" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G290" s="10">
-        <v>0.3</v>
+      <c r="G290" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -8320,8 +8335,8 @@
       <c r="F291" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G291" s="10">
-        <v>0.3</v>
+      <c r="G291" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -8343,8 +8358,8 @@
       <c r="F292" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G292" s="10">
-        <v>0.3</v>
+      <c r="G292" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -8366,8 +8381,8 @@
       <c r="F293" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G293" s="10">
-        <v>0.3</v>
+      <c r="G293" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -8389,8 +8404,8 @@
       <c r="F294" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G294" s="10">
-        <v>0.3</v>
+      <c r="G294" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -8412,8 +8427,8 @@
       <c r="F295" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G295" s="10">
-        <v>0.3</v>
+      <c r="G295" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -8435,8 +8450,8 @@
       <c r="F296" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G296" s="10">
-        <v>0.3</v>
+      <c r="G296" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -8458,8 +8473,8 @@
       <c r="F297" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G297" s="10">
-        <v>0.3</v>
+      <c r="G297" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -8481,8 +8496,8 @@
       <c r="F298" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G298" s="10">
-        <v>0.3</v>
+      <c r="G298" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -8504,8 +8519,8 @@
       <c r="F299" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G299" s="10">
-        <v>0.3</v>
+      <c r="G299" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -8527,8 +8542,8 @@
       <c r="F300" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G300" s="10">
-        <v>0.3</v>
+      <c r="G300" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -8550,8 +8565,8 @@
       <c r="F301" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G301" s="10">
-        <v>0.3</v>
+      <c r="G301" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -8573,8 +8588,8 @@
       <c r="F302" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G302" s="10">
-        <v>0.3</v>
+      <c r="G302" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -8596,8 +8611,8 @@
       <c r="F303" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G303" s="10">
-        <v>0.3</v>
+      <c r="G303" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -8619,8 +8634,8 @@
       <c r="F304" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G304" s="10">
-        <v>0.3</v>
+      <c r="G304" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -8642,8 +8657,8 @@
       <c r="F305" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G305" s="10">
-        <v>0.3</v>
+      <c r="G305" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -8665,8 +8680,8 @@
       <c r="F306" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G306" s="10">
-        <v>0.3</v>
+      <c r="G306" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -8688,8 +8703,8 @@
       <c r="F307" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G307" s="10">
-        <v>0.3</v>
+      <c r="G307" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -8711,8 +8726,8 @@
       <c r="F308" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G308" s="10">
-        <v>0.3</v>
+      <c r="G308" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -8734,8 +8749,8 @@
       <c r="F309" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G309" s="10">
-        <v>0.3</v>
+      <c r="G309" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -8757,8 +8772,8 @@
       <c r="F310" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G310" s="10">
-        <v>0.3</v>
+      <c r="G310" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -8780,8 +8795,8 @@
       <c r="F311" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G311" s="10">
-        <v>0.3</v>
+      <c r="G311" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -8803,8 +8818,8 @@
       <c r="F312" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G312" s="10">
-        <v>0.3</v>
+      <c r="G312" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -8826,8 +8841,8 @@
       <c r="F313" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G313" s="10">
-        <v>0.3</v>
+      <c r="G313" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -8849,8 +8864,8 @@
       <c r="F314" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G314" s="10">
-        <v>0.3</v>
+      <c r="G314" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -8872,8 +8887,8 @@
       <c r="F315" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G315" s="10">
-        <v>0.3</v>
+      <c r="G315" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -8895,8 +8910,8 @@
       <c r="F316" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G316" s="10">
-        <v>0.3</v>
+      <c r="G316" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -8918,8 +8933,8 @@
       <c r="F317" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G317" s="10">
-        <v>0.3</v>
+      <c r="G317" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -8941,8 +8956,8 @@
       <c r="F318" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G318" s="10">
-        <v>0.3</v>
+      <c r="G318" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -8964,8 +8979,8 @@
       <c r="F319" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G319" s="10">
-        <v>0.3</v>
+      <c r="G319" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -8987,8 +9002,8 @@
       <c r="F320" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G320" s="10">
-        <v>0.3</v>
+      <c r="G320" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -9010,8 +9025,8 @@
       <c r="F321" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G321" s="10">
-        <v>0.3</v>
+      <c r="G321" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -9033,8 +9048,8 @@
       <c r="F322" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G322" s="10">
-        <v>0.3</v>
+      <c r="G322" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -9056,8 +9071,8 @@
       <c r="F323" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G323" s="10">
-        <v>0.3</v>
+      <c r="G323" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -9079,8 +9094,8 @@
       <c r="F324" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G324" s="10">
-        <v>0.3</v>
+      <c r="G324" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -9102,8 +9117,8 @@
       <c r="F325" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G325" s="10">
-        <v>0.3</v>
+      <c r="G325" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -9125,8 +9140,8 @@
       <c r="F326" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G326" s="10">
-        <v>0.3</v>
+      <c r="G326" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -9148,8 +9163,8 @@
       <c r="F327" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G327" s="10">
-        <v>0.3</v>
+      <c r="G327" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -9171,8 +9186,8 @@
       <c r="F328" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G328" s="10">
-        <v>0.3</v>
+      <c r="G328" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -9194,8 +9209,8 @@
       <c r="F329" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G329" s="10">
-        <v>0.3</v>
+      <c r="G329" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -9217,8 +9232,8 @@
       <c r="F330" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G330" s="10">
-        <v>0.3</v>
+      <c r="G330" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -9240,8 +9255,8 @@
       <c r="F331" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G331" s="10">
-        <v>0.3</v>
+      <c r="G331" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -9263,8 +9278,8 @@
       <c r="F332" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G332" s="10">
-        <v>0.3</v>
+      <c r="G332" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -9286,8 +9301,8 @@
       <c r="F333" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G333" s="10">
-        <v>0.3</v>
+      <c r="G333" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -9309,8 +9324,8 @@
       <c r="F334" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G334" s="10">
-        <v>0.3</v>
+      <c r="G334" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -9332,8 +9347,8 @@
       <c r="F335" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G335" s="10">
-        <v>0.3</v>
+      <c r="G335" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -9355,8 +9370,8 @@
       <c r="F336" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G336" s="10">
-        <v>0.3</v>
+      <c r="G336" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -9378,8 +9393,8 @@
       <c r="F337" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G337" s="10">
-        <v>0.3</v>
+      <c r="G337" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -9401,8 +9416,8 @@
       <c r="F338" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G338" s="10">
-        <v>0.3</v>
+      <c r="G338" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -9424,8 +9439,8 @@
       <c r="F339" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G339" s="10">
-        <v>0.3</v>
+      <c r="G339" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -9447,8 +9462,8 @@
       <c r="F340" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G340" s="10">
-        <v>0.3</v>
+      <c r="G340" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -9470,8 +9485,8 @@
       <c r="F341" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G341" s="10">
-        <v>0.3</v>
+      <c r="G341" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -9493,8 +9508,8 @@
       <c r="F342" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G342" s="10">
-        <v>0.3</v>
+      <c r="G342" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -9516,8 +9531,8 @@
       <c r="F343" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G343" s="10">
-        <v>0.3</v>
+      <c r="G343" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -9539,8 +9554,8 @@
       <c r="F344" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G344" s="10">
-        <v>0.3</v>
+      <c r="G344" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -9562,8 +9577,8 @@
       <c r="F345" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G345" s="10">
-        <v>0.3</v>
+      <c r="G345" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -9585,8 +9600,8 @@
       <c r="F346" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G346" s="10">
-        <v>0.3</v>
+      <c r="G346" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -9608,8 +9623,8 @@
       <c r="F347" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G347" s="10">
-        <v>0.3</v>
+      <c r="G347" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -9631,8 +9646,8 @@
       <c r="F348" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G348" s="10">
-        <v>0.3</v>
+      <c r="G348" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -9654,8 +9669,8 @@
       <c r="F349" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G349" s="10">
-        <v>0.3</v>
+      <c r="G349" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -9677,8 +9692,8 @@
       <c r="F350" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G350" s="10">
-        <v>0.3</v>
+      <c r="G350" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9700,8 +9715,8 @@
       <c r="F351" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G351" s="10">
-        <v>0.3</v>
+      <c r="G351" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -9723,8 +9738,8 @@
       <c r="F352" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G352" s="10">
-        <v>0.3</v>
+      <c r="G352" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -9746,8 +9761,8 @@
       <c r="F353" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G353" s="10">
-        <v>0.3</v>
+      <c r="G353" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -9769,8 +9784,8 @@
       <c r="F354" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G354" s="10">
-        <v>0.3</v>
+      <c r="G354" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -9792,8 +9807,8 @@
       <c r="F355" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G355" s="10">
-        <v>0.3</v>
+      <c r="G355" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -9815,8 +9830,8 @@
       <c r="F356" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G356" s="10">
-        <v>0.3</v>
+      <c r="G356" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -9838,8 +9853,8 @@
       <c r="F357" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G357" s="10">
-        <v>0.3</v>
+      <c r="G357" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -9861,8 +9876,8 @@
       <c r="F358" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G358" s="10">
-        <v>0.3</v>
+      <c r="G358" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -9884,8 +9899,8 @@
       <c r="F359" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G359" s="10">
-        <v>0.3</v>
+      <c r="G359" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -9907,8 +9922,8 @@
       <c r="F360" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G360" s="10">
-        <v>0.3</v>
+      <c r="G360" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -9930,8 +9945,8 @@
       <c r="F361" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G361" s="10">
-        <v>0.3</v>
+      <c r="G361" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -9953,8 +9968,8 @@
       <c r="F362" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G362" s="10">
-        <v>0.3</v>
+      <c r="G362" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -9976,8 +9991,8 @@
       <c r="F363" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G363" s="10">
-        <v>0.3</v>
+      <c r="G363" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -9999,8 +10014,8 @@
       <c r="F364" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G364" s="10">
-        <v>0.3</v>
+      <c r="G364" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -10022,8 +10037,8 @@
       <c r="F365" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G365" s="10">
-        <v>0.3</v>
+      <c r="G365" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -10045,8 +10060,8 @@
       <c r="F366" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G366" s="10">
-        <v>0.3</v>
+      <c r="G366" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -10068,8 +10083,8 @@
       <c r="F367" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G367" s="10">
-        <v>0.3</v>
+      <c r="G367" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -10091,8 +10106,8 @@
       <c r="F368" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G368" s="10">
-        <v>0.3</v>
+      <c r="G368" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -10114,8 +10129,8 @@
       <c r="F369" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G369" s="10">
-        <v>0.3</v>
+      <c r="G369" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -10137,8 +10152,8 @@
       <c r="F370" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G370" s="10">
-        <v>0.3</v>
+      <c r="G370" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -10160,8 +10175,8 @@
       <c r="F371" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G371" s="10">
-        <v>0.3</v>
+      <c r="G371" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -10183,8 +10198,8 @@
       <c r="F372" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G372" s="10">
-        <v>0.3</v>
+      <c r="G372" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -10206,8 +10221,8 @@
       <c r="F373" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G373" s="10">
-        <v>0.3</v>
+      <c r="G373" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -10229,8 +10244,8 @@
       <c r="F374" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G374" s="10">
-        <v>0.3</v>
+      <c r="G374" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -10252,8 +10267,8 @@
       <c r="F375" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G375" s="10">
-        <v>0.3</v>
+      <c r="G375" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -10275,8 +10290,8 @@
       <c r="F376" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G376" s="10">
-        <v>0.3</v>
+      <c r="G376" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -10298,8 +10313,8 @@
       <c r="F377" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G377" s="10">
-        <v>0.3</v>
+      <c r="G377" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -10321,8 +10336,8 @@
       <c r="F378" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G378" s="10">
-        <v>0.3</v>
+      <c r="G378" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -10344,8 +10359,8 @@
       <c r="F379" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G379" s="10">
-        <v>0.3</v>
+      <c r="G379" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -10367,8 +10382,8 @@
       <c r="F380" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G380" s="10">
-        <v>0.4</v>
+      <c r="G380" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -10390,8 +10405,8 @@
       <c r="F381" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G381" s="10">
-        <v>0.4</v>
+      <c r="G381" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -10413,8 +10428,8 @@
       <c r="F382" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G382" s="10">
-        <v>0.4</v>
+      <c r="G382" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -10436,8 +10451,8 @@
       <c r="F383" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G383" s="10">
-        <v>0.4</v>
+      <c r="G383" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -10459,8 +10474,8 @@
       <c r="F384" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G384" s="10">
-        <v>0.4</v>
+      <c r="G384" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -10482,8 +10497,8 @@
       <c r="F385" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G385" s="10">
-        <v>0.4</v>
+      <c r="G385" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -10505,8 +10520,8 @@
       <c r="F386" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G386" s="10">
-        <v>0.4</v>
+      <c r="G386" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -10528,8 +10543,8 @@
       <c r="F387" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G387" s="10">
-        <v>0.4</v>
+      <c r="G387" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -10551,8 +10566,8 @@
       <c r="F388" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G388" s="10">
-        <v>0.4</v>
+      <c r="G388" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -10574,8 +10589,8 @@
       <c r="F389" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G389" s="10">
-        <v>0.4</v>
+      <c r="G389" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -10597,8 +10612,8 @@
       <c r="F390" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G390" s="10">
-        <v>0.4</v>
+      <c r="G390" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -10620,8 +10635,8 @@
       <c r="F391" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G391" s="10">
-        <v>0.4</v>
+      <c r="G391" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -10643,8 +10658,8 @@
       <c r="F392" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G392" s="10">
-        <v>0.4</v>
+      <c r="G392" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -10666,8 +10681,8 @@
       <c r="F393" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G393" s="10">
-        <v>0.4</v>
+      <c r="G393" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -10689,8 +10704,8 @@
       <c r="F394" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G394" s="10">
-        <v>0.4</v>
+      <c r="G394" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -10712,8 +10727,8 @@
       <c r="F395" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G395" s="10">
-        <v>0.4</v>
+      <c r="G395" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -10735,8 +10750,8 @@
       <c r="F396" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G396" s="10">
-        <v>0.4</v>
+      <c r="G396" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -10758,8 +10773,8 @@
       <c r="F397" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G397" s="10">
-        <v>0.4</v>
+      <c r="G397" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -10781,8 +10796,8 @@
       <c r="F398" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G398" s="10">
-        <v>0.4</v>
+      <c r="G398" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -10804,8 +10819,8 @@
       <c r="F399" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G399" s="10">
-        <v>0.4</v>
+      <c r="G399" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -10827,8 +10842,8 @@
       <c r="F400" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G400" s="10">
-        <v>0.4</v>
+      <c r="G400" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -10850,8 +10865,8 @@
       <c r="F401" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G401" s="10">
-        <v>0.4</v>
+      <c r="G401" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -10873,8 +10888,8 @@
       <c r="F402" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G402" s="10">
-        <v>0.4</v>
+      <c r="G402" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -10896,8 +10911,8 @@
       <c r="F403" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G403" s="10">
-        <v>0.4</v>
+      <c r="G403" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -10919,8 +10934,8 @@
       <c r="F404" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G404" s="10">
-        <v>0.4</v>
+      <c r="G404" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -10942,8 +10957,8 @@
       <c r="F405" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G405" s="10">
-        <v>0.4</v>
+      <c r="G405" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -10965,8 +10980,8 @@
       <c r="F406" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G406" s="10">
-        <v>0.4</v>
+      <c r="G406" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -10988,8 +11003,8 @@
       <c r="F407" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G407" s="10">
-        <v>0.4</v>
+      <c r="G407" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -11011,8 +11026,8 @@
       <c r="F408" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G408" s="10">
-        <v>0.4</v>
+      <c r="G408" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -11034,8 +11049,8 @@
       <c r="F409" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G409" s="10">
-        <v>0.4</v>
+      <c r="G409" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -11057,8 +11072,8 @@
       <c r="F410" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G410" s="10">
-        <v>0.4</v>
+      <c r="G410" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -11080,8 +11095,8 @@
       <c r="F411" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G411" s="10">
-        <v>0.4</v>
+      <c r="G411" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -11103,8 +11118,8 @@
       <c r="F412" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G412" s="10">
-        <v>0.4</v>
+      <c r="G412" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -11126,8 +11141,8 @@
       <c r="F413" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G413" s="10">
-        <v>0.4</v>
+      <c r="G413" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -11149,8 +11164,8 @@
       <c r="F414" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G414" s="10">
-        <v>0.4</v>
+      <c r="G414" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -11172,8 +11187,8 @@
       <c r="F415" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G415" s="10">
-        <v>0.4</v>
+      <c r="G415" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -11195,8 +11210,8 @@
       <c r="F416" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G416" s="10">
-        <v>0.4</v>
+      <c r="G416" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -11218,8 +11233,8 @@
       <c r="F417" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G417" s="10">
-        <v>0.4</v>
+      <c r="G417" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -11241,8 +11256,8 @@
       <c r="F418" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G418" s="10">
-        <v>0.4</v>
+      <c r="G418" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -11264,8 +11279,8 @@
       <c r="F419" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G419" s="10">
-        <v>0.4</v>
+      <c r="G419" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -11287,8 +11302,8 @@
       <c r="F420" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G420" s="10">
-        <v>0.4</v>
+      <c r="G420" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -11310,8 +11325,8 @@
       <c r="F421" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G421" s="10">
-        <v>0.4</v>
+      <c r="G421" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -11333,8 +11348,8 @@
       <c r="F422" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G422" s="10">
-        <v>0.4</v>
+      <c r="G422" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -11356,8 +11371,8 @@
       <c r="F423" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G423" s="10">
-        <v>0.4</v>
+      <c r="G423" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -11379,8 +11394,8 @@
       <c r="F424" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G424" s="10">
-        <v>0.4</v>
+      <c r="G424" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11402,8 +11417,8 @@
       <c r="F425" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G425" s="10">
-        <v>0.4</v>
+      <c r="G425" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11425,8 +11440,8 @@
       <c r="F426" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G426" s="10">
-        <v>0.4</v>
+      <c r="G426" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -11448,8 +11463,8 @@
       <c r="F427" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G427" s="10">
-        <v>0.4</v>
+      <c r="G427" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -11471,8 +11486,8 @@
       <c r="F428" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G428" s="10">
-        <v>0.8</v>
+      <c r="G428" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -11494,8 +11509,8 @@
       <c r="F429" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G429" s="10">
-        <v>0.8</v>
+      <c r="G429" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -11517,8 +11532,8 @@
       <c r="F430" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G430" s="10">
-        <v>0.8</v>
+      <c r="G430" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -11540,8 +11555,8 @@
       <c r="F431" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G431" s="10">
-        <v>0.8</v>
+      <c r="G431" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11563,8 +11578,8 @@
       <c r="F432" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G432" s="10">
-        <v>0.4</v>
+      <c r="G432" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -11586,8 +11601,8 @@
       <c r="F433" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G433" s="10">
-        <v>0.4</v>
+      <c r="G433" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -11609,8 +11624,8 @@
       <c r="F434" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G434" s="10">
-        <v>0.4</v>
+      <c r="G434" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -11632,8 +11647,8 @@
       <c r="F435" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G435" s="10">
-        <v>0.4</v>
+      <c r="G435" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -11655,8 +11670,8 @@
       <c r="F436" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G436" s="10">
-        <v>0.4</v>
+      <c r="G436" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -11678,8 +11693,8 @@
       <c r="F437" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G437" s="10">
-        <v>0.4</v>
+      <c r="G437" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -11701,8 +11716,8 @@
       <c r="F438" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G438" s="10">
-        <v>0.4</v>
+      <c r="G438" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -11724,8 +11739,8 @@
       <c r="F439" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G439" s="10">
-        <v>0.4</v>
+      <c r="G439" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -11747,8 +11762,8 @@
       <c r="F440" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G440" s="10">
-        <v>0.4</v>
+      <c r="G440" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -11770,8 +11785,8 @@
       <c r="F441" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G441" s="10">
-        <v>0.4</v>
+      <c r="G441" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -11793,8 +11808,8 @@
       <c r="F442" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G442" s="10">
-        <v>0.4</v>
+      <c r="G442" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -11816,8 +11831,8 @@
       <c r="F443" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G443" s="10">
-        <v>0.4</v>
+      <c r="G443" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -11839,8 +11854,8 @@
       <c r="F444" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G444" s="10">
-        <v>0.4</v>
+      <c r="G444" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -11862,8 +11877,8 @@
       <c r="F445" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G445" s="10">
-        <v>0.4</v>
+      <c r="G445" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -11885,8 +11900,8 @@
       <c r="F446" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G446" s="10">
-        <v>0.4</v>
+      <c r="G446" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -11908,8 +11923,8 @@
       <c r="F447" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G447" s="10">
-        <v>0.4</v>
+      <c r="G447" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -11931,8 +11946,8 @@
       <c r="F448" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G448" s="10">
-        <v>0.4</v>
+      <c r="G448" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -11954,8 +11969,8 @@
       <c r="F449" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G449" s="10">
-        <v>0.4</v>
+      <c r="G449" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -11977,8 +11992,8 @@
       <c r="F450" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G450" s="10">
-        <v>0.4</v>
+      <c r="G450" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -12000,8 +12015,8 @@
       <c r="F451" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G451" s="10">
-        <v>0.4</v>
+      <c r="G451" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -12023,8 +12038,8 @@
       <c r="F452" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G452" s="10">
-        <v>0.4</v>
+      <c r="G452" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -12046,8 +12061,8 @@
       <c r="F453" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G453" s="10">
-        <v>0.4</v>
+      <c r="G453" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -12069,8 +12084,8 @@
       <c r="F454" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G454" s="10">
-        <v>0.4</v>
+      <c r="G454" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -12092,8 +12107,8 @@
       <c r="F455" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G455" s="10">
-        <v>0.4</v>
+      <c r="G455" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -12115,8 +12130,8 @@
       <c r="F456" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G456" s="10">
-        <v>0.4</v>
+      <c r="G456" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -12138,8 +12153,8 @@
       <c r="F457" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G457" s="10">
-        <v>0.4</v>
+      <c r="G457" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -12161,8 +12176,8 @@
       <c r="F458" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G458" s="10">
-        <v>0.4</v>
+      <c r="G458" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -12184,8 +12199,8 @@
       <c r="F459" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G459" s="10">
-        <v>0.4</v>
+      <c r="G459" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -12207,8 +12222,8 @@
       <c r="F460" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G460" s="10">
-        <v>0.4</v>
+      <c r="G460" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -12230,8 +12245,8 @@
       <c r="F461" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G461" s="10">
-        <v>0.4</v>
+      <c r="G461" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -12253,8 +12268,8 @@
       <c r="F462" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G462" s="10">
-        <v>0.4</v>
+      <c r="G462" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -12276,8 +12291,8 @@
       <c r="F463" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G463" s="10">
-        <v>0.4</v>
+      <c r="G463" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -12299,8 +12314,8 @@
       <c r="F464" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G464" s="10">
-        <v>0.4</v>
+      <c r="G464" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -12322,8 +12337,8 @@
       <c r="F465" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G465" s="10">
-        <v>0.4</v>
+      <c r="G465" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -12345,8 +12360,8 @@
       <c r="F466" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G466" s="10">
-        <v>0.4</v>
+      <c r="G466" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -12368,8 +12383,8 @@
       <c r="F467" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G467" s="10">
-        <v>0.4</v>
+      <c r="G467" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -12391,8 +12406,8 @@
       <c r="F468" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G468" s="10">
-        <v>0.4</v>
+      <c r="G468" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -12414,8 +12429,8 @@
       <c r="F469" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G469" s="10">
-        <v>0.4</v>
+      <c r="G469" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -12437,8 +12452,8 @@
       <c r="F470" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G470" s="10">
-        <v>0.4</v>
+      <c r="G470" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -12460,8 +12475,8 @@
       <c r="F471" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G471" s="10">
-        <v>0.4</v>
+      <c r="G471" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -12483,8 +12498,8 @@
       <c r="F472" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G472" s="10">
-        <v>0.4</v>
+      <c r="G472" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -12506,8 +12521,8 @@
       <c r="F473" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G473" s="10">
-        <v>0.4</v>
+      <c r="G473" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -12529,8 +12544,8 @@
       <c r="F474" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G474" s="10">
-        <v>0.4</v>
+      <c r="G474" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -12552,8 +12567,8 @@
       <c r="F475" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G475" s="10">
-        <v>0.4</v>
+      <c r="G475" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -12575,8 +12590,8 @@
       <c r="F476" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G476" s="10">
-        <v>0.4</v>
+      <c r="G476" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -12598,8 +12613,8 @@
       <c r="F477" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G477" s="10">
-        <v>0.4</v>
+      <c r="G477" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -12621,8 +12636,8 @@
       <c r="F478" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G478" s="10">
-        <v>0.4</v>
+      <c r="G478" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -12644,8 +12659,8 @@
       <c r="F479" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G479" s="10">
-        <v>0.4</v>
+      <c r="G479" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -12667,8 +12682,8 @@
       <c r="F480" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G480" s="10">
-        <v>0.4</v>
+      <c r="G480" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -12690,8 +12705,8 @@
       <c r="F481" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G481" s="10">
-        <v>0.4</v>
+      <c r="G481" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -12713,8 +12728,8 @@
       <c r="F482" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G482" s="10">
-        <v>0.4</v>
+      <c r="G482" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -12736,8 +12751,8 @@
       <c r="F483" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G483" s="10">
-        <v>0.4</v>
+      <c r="G483" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -12759,8 +12774,8 @@
       <c r="F484" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G484" s="10">
-        <v>0.4</v>
+      <c r="G484" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -12782,8 +12797,8 @@
       <c r="F485" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G485" s="10">
-        <v>0.4</v>
+      <c r="G485" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -12805,8 +12820,8 @@
       <c r="F486" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G486" s="10">
-        <v>0.4</v>
+      <c r="G486" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -12828,8 +12843,8 @@
       <c r="F487" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G487" s="10">
-        <v>0.4</v>
+      <c r="G487" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -12851,8 +12866,8 @@
       <c r="F488" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G488" s="10">
-        <v>0.4</v>
+      <c r="G488" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -12874,8 +12889,8 @@
       <c r="F489" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G489" s="10">
-        <v>0.4</v>
+      <c r="G489" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -12897,8 +12912,8 @@
       <c r="F490" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G490" s="10">
-        <v>0.4</v>
+      <c r="G490" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -12920,8 +12935,8 @@
       <c r="F491" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G491" s="10">
-        <v>0.4</v>
+      <c r="G491" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -12943,8 +12958,8 @@
       <c r="F492" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G492" s="10">
-        <v>0.4</v>
+      <c r="G492" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -12966,8 +12981,8 @@
       <c r="F493" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G493" s="10">
-        <v>0.4</v>
+      <c r="G493" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -12989,8 +13004,8 @@
       <c r="F494" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G494" s="10">
-        <v>0.4</v>
+      <c r="G494" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
@@ -13012,8 +13027,8 @@
       <c r="F495" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G495" s="10">
-        <v>0.4</v>
+      <c r="G495" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
@@ -13035,8 +13050,8 @@
       <c r="F496" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G496" s="10">
-        <v>0.4</v>
+      <c r="G496" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
@@ -13058,8 +13073,8 @@
       <c r="F497" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G497" s="10">
-        <v>0.4</v>
+      <c r="G497" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -13081,8 +13096,8 @@
       <c r="F498" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G498" s="10">
-        <v>0.4</v>
+      <c r="G498" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -13104,8 +13119,8 @@
       <c r="F499" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G499" s="10">
-        <v>0.4</v>
+      <c r="G499" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -13127,8 +13142,8 @@
       <c r="F500" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G500" s="10">
-        <v>0.4</v>
+      <c r="G500" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
@@ -13150,8 +13165,8 @@
       <c r="F501" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G501" s="10">
-        <v>0.4</v>
+      <c r="G501" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
@@ -13173,8 +13188,8 @@
       <c r="F502" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G502" s="10">
-        <v>0.4</v>
+      <c r="G502" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
@@ -13196,8 +13211,8 @@
       <c r="F503" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G503" s="10">
-        <v>0.4</v>
+      <c r="G503" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -13219,8 +13234,8 @@
       <c r="F504" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G504" s="10">
-        <v>0.4</v>
+      <c r="G504" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
@@ -13242,8 +13257,8 @@
       <c r="F505" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G505" s="10">
-        <v>0.4</v>
+      <c r="G505" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
@@ -13265,8 +13280,8 @@
       <c r="F506" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G506" s="10">
-        <v>0.4</v>
+      <c r="G506" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
@@ -13288,8 +13303,8 @@
       <c r="F507" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G507" s="10">
-        <v>0.4</v>
+      <c r="G507" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
@@ -13311,8 +13326,8 @@
       <c r="F508" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G508" s="10">
-        <v>0.4</v>
+      <c r="G508" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
@@ -13334,8 +13349,8 @@
       <c r="F509" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G509" s="10">
-        <v>0.4</v>
+      <c r="G509" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
@@ -13357,8 +13372,8 @@
       <c r="F510" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G510" s="10">
-        <v>0.4</v>
+      <c r="G510" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -13380,8 +13395,8 @@
       <c r="F511" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G511" s="10">
-        <v>0.4</v>
+      <c r="G511" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
@@ -13403,8 +13418,8 @@
       <c r="F512" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G512" s="10">
-        <v>0.4</v>
+      <c r="G512" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
@@ -13426,8 +13441,8 @@
       <c r="F513" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G513" s="10">
-        <v>0.4</v>
+      <c r="G513" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -13449,8 +13464,8 @@
       <c r="F514" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G514" s="10">
-        <v>0.4</v>
+      <c r="G514" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
@@ -13472,8 +13487,8 @@
       <c r="F515" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G515" s="10">
-        <v>0.4</v>
+      <c r="G515" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
@@ -13495,8 +13510,8 @@
       <c r="F516" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G516" s="10">
-        <v>0.4</v>
+      <c r="G516" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
@@ -13518,8 +13533,8 @@
       <c r="F517" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G517" s="10">
-        <v>0.4</v>
+      <c r="G517" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -13541,8 +13556,8 @@
       <c r="F518" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G518" s="10">
-        <v>0.4</v>
+      <c r="G518" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
@@ -13564,8 +13579,8 @@
       <c r="F519" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G519" s="10">
-        <v>0.4</v>
+      <c r="G519" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -13587,8 +13602,8 @@
       <c r="F520" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G520" s="10">
-        <v>0.4</v>
+      <c r="G520" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
@@ -13610,8 +13625,8 @@
       <c r="F521" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G521" s="10">
-        <v>0.4</v>
+      <c r="G521" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
@@ -13633,8 +13648,8 @@
       <c r="F522" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G522" s="10">
-        <v>0.4</v>
+      <c r="G522" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
@@ -13656,8 +13671,8 @@
       <c r="F523" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G523" s="10">
-        <v>0.4</v>
+      <c r="G523" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
@@ -13679,8 +13694,8 @@
       <c r="F524" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G524" s="10">
-        <v>0.4</v>
+      <c r="G524" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
@@ -13702,8 +13717,8 @@
       <c r="F525" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G525" s="10">
-        <v>0.4</v>
+      <c r="G525" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -13725,8 +13740,8 @@
       <c r="F526" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G526" s="10">
-        <v>0.4</v>
+      <c r="G526" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
@@ -13748,8 +13763,8 @@
       <c r="F527" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G527" s="10">
-        <v>0.4</v>
+      <c r="G527" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -13771,8 +13786,8 @@
       <c r="F528" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G528" s="10">
-        <v>0.4</v>
+      <c r="G528" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
@@ -13794,8 +13809,8 @@
       <c r="F529" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G529" s="10">
-        <v>0.4</v>
+      <c r="G529" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
@@ -13817,8 +13832,8 @@
       <c r="F530" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G530" s="10">
-        <v>0.4</v>
+      <c r="G530" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -13840,8 +13855,8 @@
       <c r="F531" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G531" s="10">
-        <v>0.4</v>
+      <c r="G531" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
@@ -13863,8 +13878,8 @@
       <c r="F532" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G532" s="10">
-        <v>0.4</v>
+      <c r="G532" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
@@ -13886,8 +13901,8 @@
       <c r="F533" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G533" s="10">
-        <v>0.4</v>
+      <c r="G533" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
@@ -13909,8 +13924,8 @@
       <c r="F534" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G534" s="10">
-        <v>0.4</v>
+      <c r="G534" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
@@ -13932,8 +13947,8 @@
       <c r="F535" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G535" s="10">
-        <v>0.4</v>
+      <c r="G535" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
@@ -13955,8 +13970,8 @@
       <c r="F536" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G536" s="10">
-        <v>0.4</v>
+      <c r="G536" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
@@ -13978,8 +13993,8 @@
       <c r="F537" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G537" s="10">
-        <v>0.4</v>
+      <c r="G537" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
@@ -14001,8 +14016,8 @@
       <c r="F538" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G538" s="10">
-        <v>0.4</v>
+      <c r="G538" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
@@ -14024,8 +14039,8 @@
       <c r="F539" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G539" s="10">
-        <v>0.4</v>
+      <c r="G539" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
@@ -14047,8 +14062,8 @@
       <c r="F540" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G540" s="10">
-        <v>0.4</v>
+      <c r="G540" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -14070,8 +14085,8 @@
       <c r="F541" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G541" s="10">
-        <v>0.4</v>
+      <c r="G541" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
@@ -14093,8 +14108,8 @@
       <c r="F542" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G542" s="10">
-        <v>0.4</v>
+      <c r="G542" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
@@ -14116,8 +14131,8 @@
       <c r="F543" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G543" s="10">
-        <v>0.4</v>
+      <c r="G543" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
@@ -14139,8 +14154,8 @@
       <c r="F544" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G544" s="10">
-        <v>0.4</v>
+      <c r="G544" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
@@ -14162,8 +14177,8 @@
       <c r="F545" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G545" s="10">
-        <v>0.4</v>
+      <c r="G545" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
@@ -14185,8 +14200,8 @@
       <c r="F546" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G546" s="10">
-        <v>0.4</v>
+      <c r="G546" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
@@ -14208,8 +14223,8 @@
       <c r="F547" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G547" s="10">
-        <v>0.4</v>
+      <c r="G547" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
@@ -14231,8 +14246,8 @@
       <c r="F548" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G548" s="10">
-        <v>0.4</v>
+      <c r="G548" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
@@ -14254,8 +14269,8 @@
       <c r="F549" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G549" s="10">
-        <v>0.4</v>
+      <c r="G549" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
@@ -14277,8 +14292,8 @@
       <c r="F550" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G550" s="10">
-        <v>0.4</v>
+      <c r="G550" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
@@ -14300,8 +14315,8 @@
       <c r="F551" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G551" s="10">
-        <v>0.4</v>
+      <c r="G551" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
@@ -14323,8 +14338,8 @@
       <c r="F552" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G552" s="10">
-        <v>0.4</v>
+      <c r="G552" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
@@ -14346,8 +14361,8 @@
       <c r="F553" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G553" s="10">
-        <v>0.4</v>
+      <c r="G553" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
@@ -14369,8 +14384,8 @@
       <c r="F554" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G554" s="10">
-        <v>0.4</v>
+      <c r="G554" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
@@ -14392,8 +14407,8 @@
       <c r="F555" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G555" s="10">
-        <v>0.4</v>
+      <c r="G555" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
@@ -14415,8 +14430,8 @@
       <c r="F556" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G556" s="10">
-        <v>0.4</v>
+      <c r="G556" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
@@ -14438,8 +14453,8 @@
       <c r="F557" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G557" s="10">
-        <v>0.4</v>
+      <c r="G557" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
@@ -14461,8 +14476,8 @@
       <c r="F558" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G558" s="10">
-        <v>0.4</v>
+      <c r="G558" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
@@ -14484,8 +14499,8 @@
       <c r="F559" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G559" s="10">
-        <v>0.4</v>
+      <c r="G559" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
@@ -14507,8 +14522,8 @@
       <c r="F560" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G560" s="10">
-        <v>0.4</v>
+      <c r="G560" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
@@ -14530,8 +14545,8 @@
       <c r="F561" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G561" s="10">
-        <v>0.4</v>
+      <c r="G561" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
@@ -14553,8 +14568,8 @@
       <c r="F562" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G562" s="10">
-        <v>0.4</v>
+      <c r="G562" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
@@ -14576,8 +14591,8 @@
       <c r="F563" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G563" s="10">
-        <v>0.4</v>
+      <c r="G563" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
@@ -14599,8 +14614,8 @@
       <c r="F564" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G564" s="10">
-        <v>0.4</v>
+      <c r="G564" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
@@ -14622,8 +14637,8 @@
       <c r="F565" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G565" s="10">
-        <v>0.4</v>
+      <c r="G565" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
@@ -14645,8 +14660,8 @@
       <c r="F566" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G566" s="10">
-        <v>0.4</v>
+      <c r="G566" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
@@ -14668,8 +14683,8 @@
       <c r="F567" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G567" s="10">
-        <v>0.4</v>
+      <c r="G567" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
@@ -14691,8 +14706,8 @@
       <c r="F568" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G568" s="10">
-        <v>0.4</v>
+      <c r="G568" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
@@ -14714,8 +14729,8 @@
       <c r="F569" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G569" s="10">
-        <v>0.4</v>
+      <c r="G569" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
@@ -14737,8 +14752,8 @@
       <c r="F570" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G570" s="10">
-        <v>0.4</v>
+      <c r="G570" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
@@ -14760,8 +14775,8 @@
       <c r="F571" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G571" s="10">
-        <v>0.4</v>
+      <c r="G571" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
@@ -14783,8 +14798,8 @@
       <c r="F572" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G572" s="10">
-        <v>0.4</v>
+      <c r="G572" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
@@ -14806,8 +14821,8 @@
       <c r="F573" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G573" s="10">
-        <v>0.4</v>
+      <c r="G573" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
@@ -14829,8 +14844,8 @@
       <c r="F574" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G574" s="10">
-        <v>0.4</v>
+      <c r="G574" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
@@ -14852,8 +14867,8 @@
       <c r="F575" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G575" s="10">
-        <v>0.4</v>
+      <c r="G575" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
@@ -14875,8 +14890,8 @@
       <c r="F576" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G576" s="10">
-        <v>0.4</v>
+      <c r="G576" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
@@ -14898,8 +14913,8 @@
       <c r="F577" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G577" s="10">
-        <v>0.4</v>
+      <c r="G577" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -14921,8 +14936,8 @@
       <c r="F578" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G578" s="10">
-        <v>0.4</v>
+      <c r="G578" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
@@ -14944,8 +14959,8 @@
       <c r="F579" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G579" s="10">
-        <v>0.4</v>
+      <c r="G579" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
@@ -14967,8 +14982,8 @@
       <c r="F580" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G580" s="10">
-        <v>0.4</v>
+      <c r="G580" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
@@ -14990,8 +15005,8 @@
       <c r="F581" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G581" s="10">
-        <v>0.4</v>
+      <c r="G581" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
@@ -15013,8 +15028,8 @@
       <c r="F582" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G582" s="10">
-        <v>0.4</v>
+      <c r="G582" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
@@ -15036,8 +15051,8 @@
       <c r="F583" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G583" s="10">
-        <v>0.4</v>
+      <c r="G583" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -15059,8 +15074,8 @@
       <c r="F584" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G584" s="10">
-        <v>0.4</v>
+      <c r="G584" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
@@ -15082,8 +15097,8 @@
       <c r="F585" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G585" s="10">
-        <v>0.4</v>
+      <c r="G585" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
@@ -15105,8 +15120,8 @@
       <c r="F586" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G586" s="10">
-        <v>0.4</v>
+      <c r="G586" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
@@ -15128,8 +15143,8 @@
       <c r="F587" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G587" s="10">
-        <v>0.4</v>
+      <c r="G587" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
@@ -15151,8 +15166,8 @@
       <c r="F588" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G588" s="10">
-        <v>0.4</v>
+      <c r="G588" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
@@ -15174,8 +15189,8 @@
       <c r="F589" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G589" s="10">
-        <v>0.4</v>
+      <c r="G589" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
@@ -15197,8 +15212,8 @@
       <c r="F590" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G590" s="10">
-        <v>0.4</v>
+      <c r="G590" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
@@ -15220,8 +15235,8 @@
       <c r="F591" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G591" s="10">
-        <v>0.4</v>
+      <c r="G591" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
@@ -15243,8 +15258,8 @@
       <c r="F592" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G592" s="10">
-        <v>0.4</v>
+      <c r="G592" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
@@ -15266,8 +15281,8 @@
       <c r="F593" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G593" s="10">
-        <v>0.4</v>
+      <c r="G593" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
@@ -15289,8 +15304,8 @@
       <c r="F594" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G594" s="10">
-        <v>0.4</v>
+      <c r="G594" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
@@ -15312,8 +15327,8 @@
       <c r="F595" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G595" s="10">
-        <v>0.4</v>
+      <c r="G595" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
@@ -15335,8 +15350,8 @@
       <c r="F596" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G596" s="10">
-        <v>0.4</v>
+      <c r="G596" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
@@ -15358,8 +15373,8 @@
       <c r="F597" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G597" s="10">
-        <v>0.4</v>
+      <c r="G597" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
@@ -15381,8 +15396,8 @@
       <c r="F598" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G598" s="10">
-        <v>0.4</v>
+      <c r="G598" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
@@ -15404,8 +15419,8 @@
       <c r="F599" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G599" s="10">
-        <v>0.4</v>
+      <c r="G599" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
@@ -15427,8 +15442,8 @@
       <c r="F600" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G600" s="10">
-        <v>0.8</v>
+      <c r="G600" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
@@ -15450,8 +15465,8 @@
       <c r="F601" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G601" s="10">
-        <v>0.8</v>
+      <c r="G601" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
@@ -15473,8 +15488,8 @@
       <c r="F602" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G602" s="10">
-        <v>0.9</v>
+      <c r="G602" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
@@ -15496,8 +15511,8 @@
       <c r="F603" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G603" s="10">
-        <v>0.9</v>
+      <c r="G603" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -15594,7 +15609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
